--- a/public/forms/원부자재_엑셀업로드_양식.xlsx
+++ b/public/forms/원부자재_엑셀업로드_양식.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\PionElectric\pion_electric_erp\public\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="양식" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateCount="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
   </si>
   <si>
     <t>PE No.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입고일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -147,11 +143,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -437,57 +430,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/public/forms/원부자재_엑셀업로드_양식.xlsx
+++ b/public/forms/원부자재_엑셀업로드_양식.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,10 @@
   </si>
   <si>
     <t>사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,15 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,30 +450,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/public/forms/원부자재_엑셀업로드_양식.xlsx
+++ b/public/forms/원부자재_엑셀업로드_양식.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="양식" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateCount="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
   </si>
   <si>
     <t>상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -434,15 +430,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +446,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -475,9 +471,6 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/public/forms/원부자재_엑셀업로드_양식.xlsx
+++ b/public/forms/원부자재_엑셀업로드_양식.xlsx
@@ -23,6 +23,62 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>관리코드</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기입</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>X</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
@@ -74,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,8 +155,23 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +181,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -143,12 +220,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,20 +512,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -477,5 +563,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>